--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Eng</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H2">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I2">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J2">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>373.903183246002</v>
+        <v>224.098809956077</v>
       </c>
       <c r="R2">
-        <v>3365.128649214018</v>
+        <v>2016.889289604693</v>
       </c>
       <c r="S2">
-        <v>0.06337585675847733</v>
+        <v>0.04375514025863754</v>
       </c>
       <c r="T2">
-        <v>0.07771073130681942</v>
+        <v>0.05360805560606629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H3">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I3">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J3">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>89.41831282824501</v>
+        <v>65.684053895505</v>
       </c>
       <c r="R3">
-        <v>804.7648154542049</v>
+        <v>591.156485059545</v>
       </c>
       <c r="S3">
-        <v>0.01515622877609766</v>
+        <v>0.01282476685849885</v>
       </c>
       <c r="T3">
-        <v>0.01858438973902256</v>
+        <v>0.01571268680254141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H4">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I4">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J4">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>13.247946722739</v>
+        <v>9.970168485537</v>
       </c>
       <c r="R4">
-        <v>119.231520504651</v>
+        <v>89.73151636983302</v>
       </c>
       <c r="S4">
-        <v>0.002245501005247789</v>
+        <v>0.001946668617171251</v>
       </c>
       <c r="T4">
-        <v>0.00275340696273368</v>
+        <v>0.002385025367512102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H5">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I5">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J5">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>40.1057808134015</v>
+        <v>6.894155663680501</v>
       </c>
       <c r="R5">
-        <v>240.634684880409</v>
+        <v>41.36493398208301</v>
       </c>
       <c r="S5">
-        <v>0.006797851245745444</v>
+        <v>0.00134607920536635</v>
       </c>
       <c r="T5">
-        <v>0.005556963578260313</v>
+        <v>0.001099462272164374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H6">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I6">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J6">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>9.170351087588665</v>
+        <v>15.337856999888</v>
       </c>
       <c r="R6">
-        <v>82.53315978829799</v>
+        <v>138.040712998992</v>
       </c>
       <c r="S6">
-        <v>0.001554356536648128</v>
+        <v>0.002994706149615706</v>
       </c>
       <c r="T6">
-        <v>0.001905933731748784</v>
+        <v>0.003669063173914423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J7">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>1762.16840383891</v>
+        <v>1437.786230523771</v>
       </c>
       <c r="R7">
-        <v>15859.51563455019</v>
+        <v>12940.07607471394</v>
       </c>
       <c r="S7">
-        <v>0.2986840908292897</v>
+        <v>0.2807267838273471</v>
       </c>
       <c r="T7">
-        <v>0.3662429245968625</v>
+        <v>0.3439416934461262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J8">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
         <v>421.4195884148084</v>
@@ -948,10 +948,10 @@
         <v>3792.776295733275</v>
       </c>
       <c r="S8">
-        <v>0.0714297943086018</v>
+        <v>0.08228188807625224</v>
       </c>
       <c r="T8">
-        <v>0.08758637494986816</v>
+        <v>0.1008103734850467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J9">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>62.43625135224501</v>
+        <v>63.967189148915</v>
       </c>
       <c r="R9">
-        <v>561.9262621702051</v>
+        <v>575.704702340235</v>
       </c>
       <c r="S9">
-        <v>0.01058282223725485</v>
+        <v>0.0124895501841806</v>
       </c>
       <c r="T9">
-        <v>0.01297653234860827</v>
+        <v>0.0153019850196032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J10">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>189.0145442120159</v>
+        <v>44.23192647149751</v>
       </c>
       <c r="R10">
-        <v>1134.087265272095</v>
+        <v>265.391558828985</v>
       </c>
       <c r="S10">
-        <v>0.0320375947999573</v>
+        <v>0.00863625356622575</v>
       </c>
       <c r="T10">
-        <v>0.02618941500813938</v>
+        <v>0.007053994245699691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J11">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>43.21894988528778</v>
+        <v>98.40551855007114</v>
       </c>
       <c r="R11">
-        <v>388.97054896759</v>
+        <v>885.6496669506402</v>
       </c>
       <c r="S11">
-        <v>0.007325527302022765</v>
+        <v>0.01921361058198498</v>
       </c>
       <c r="T11">
-        <v>0.008982475550866826</v>
+        <v>0.0235401897556259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H12">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I12">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J12">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N12">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O12">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P12">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q12">
-        <v>5.199707798694001</v>
+        <v>1902.743823737824</v>
       </c>
       <c r="R12">
-        <v>46.79737018824601</v>
+        <v>11416.46294242694</v>
       </c>
       <c r="S12">
-        <v>0.0008813402811260823</v>
+        <v>0.3715094377351785</v>
       </c>
       <c r="T12">
-        <v>0.001080689102752119</v>
+        <v>0.3034447073503834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H13">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I13">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J13">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P13">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q13">
-        <v>1.243501311015</v>
+        <v>557.7000961862776</v>
       </c>
       <c r="R13">
-        <v>11.191511799135</v>
+        <v>3346.200577117665</v>
       </c>
       <c r="S13">
-        <v>0.0002107710351158346</v>
+        <v>0.1088905645490444</v>
       </c>
       <c r="T13">
-        <v>0.0002584449680825166</v>
+        <v>0.08894058168276245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H14">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I14">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J14">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N14">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O14">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P14">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q14">
-        <v>0.184233392433</v>
+        <v>84.65317826185351</v>
       </c>
       <c r="R14">
-        <v>1.658100531897</v>
+        <v>507.919069571121</v>
       </c>
       <c r="S14">
-        <v>3.122719894385118E-05</v>
+        <v>0.01652847549218502</v>
       </c>
       <c r="T14">
-        <v>3.8290424630285E-05</v>
+        <v>0.01350027186186648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H15">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I15">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J15">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N15">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O15">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P15">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q15">
-        <v>0.5577335273205001</v>
+        <v>58.53584011234276</v>
       </c>
       <c r="R15">
-        <v>3.346401163923</v>
+        <v>234.143360449371</v>
       </c>
       <c r="S15">
-        <v>9.45347397954849E-05</v>
+        <v>0.01142908297806106</v>
       </c>
       <c r="T15">
-        <v>7.727825851626425E-05</v>
+        <v>0.00622343048349534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H16">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I16">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J16">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N16">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O16">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P16">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q16">
-        <v>0.127528055934</v>
+        <v>130.228325092984</v>
       </c>
       <c r="R16">
-        <v>1.147752503406</v>
+        <v>781.3699505579042</v>
       </c>
       <c r="S16">
-        <v>2.161575554237191E-05</v>
+        <v>0.02542699192025069</v>
       </c>
       <c r="T16">
-        <v>2.650498560277791E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10.070754</v>
-      </c>
-      <c r="H17">
-        <v>20.141508</v>
-      </c>
-      <c r="I17">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J17">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>203.934102</v>
-      </c>
-      <c r="N17">
-        <v>611.802306</v>
-      </c>
-      <c r="O17">
-        <v>0.7110513071461264</v>
-      </c>
-      <c r="P17">
-        <v>0.7295999567593805</v>
-      </c>
-      <c r="Q17">
-        <v>2053.770173452908</v>
-      </c>
-      <c r="R17">
-        <v>12322.62104071745</v>
-      </c>
-      <c r="S17">
-        <v>0.3481100192772332</v>
-      </c>
-      <c r="T17">
-        <v>0.2845656117529463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>10.070754</v>
-      </c>
-      <c r="H18">
-        <v>20.141508</v>
-      </c>
-      <c r="I18">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J18">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>48.770495</v>
-      </c>
-      <c r="N18">
-        <v>146.311485</v>
-      </c>
-      <c r="O18">
-        <v>0.1700467154822082</v>
-      </c>
-      <c r="P18">
-        <v>0.174482593613174</v>
-      </c>
-      <c r="Q18">
-        <v>491.15565760323</v>
-      </c>
-      <c r="R18">
-        <v>2946.93394561938</v>
-      </c>
-      <c r="S18">
-        <v>0.08324992136239287</v>
-      </c>
-      <c r="T18">
-        <v>0.06805338395620077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>10.070754</v>
-      </c>
-      <c r="H19">
-        <v>20.141508</v>
-      </c>
-      <c r="I19">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J19">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.225689</v>
-      </c>
-      <c r="N19">
-        <v>21.677067</v>
-      </c>
-      <c r="O19">
-        <v>0.02519360694505809</v>
-      </c>
-      <c r="P19">
-        <v>0.02585081322964185</v>
-      </c>
-      <c r="Q19">
-        <v>72.76813639950599</v>
-      </c>
-      <c r="R19">
-        <v>436.608818397036</v>
-      </c>
-      <c r="S19">
-        <v>0.0123340565036116</v>
-      </c>
-      <c r="T19">
-        <v>0.01008258349366961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>10.070754</v>
-      </c>
-      <c r="H20">
-        <v>20.141508</v>
-      </c>
-      <c r="I20">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J20">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>21.8744765</v>
-      </c>
-      <c r="N20">
-        <v>43.748953</v>
-      </c>
-      <c r="O20">
-        <v>0.07626912299573232</v>
-      </c>
-      <c r="P20">
-        <v>0.05217246470638207</v>
-      </c>
-      <c r="Q20">
-        <v>220.292471710281</v>
-      </c>
-      <c r="R20">
-        <v>881.1698868411239</v>
-      </c>
-      <c r="S20">
-        <v>0.03733914221023409</v>
-      </c>
-      <c r="T20">
-        <v>0.02034880786146611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>10.070754</v>
-      </c>
-      <c r="H21">
-        <v>20.141508</v>
-      </c>
-      <c r="I21">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J21">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.001688666666666</v>
-      </c>
-      <c r="N21">
-        <v>15.005066</v>
-      </c>
-      <c r="O21">
-        <v>0.01743924743087499</v>
-      </c>
-      <c r="P21">
-        <v>0.01789417169142159</v>
-      </c>
-      <c r="Q21">
-        <v>50.37077614658799</v>
-      </c>
-      <c r="R21">
-        <v>302.224656879528</v>
-      </c>
-      <c r="S21">
-        <v>0.008537747836661728</v>
-      </c>
-      <c r="T21">
-        <v>0.006979257423203199</v>
+        <v>0.02076847944719232</v>
       </c>
     </row>
   </sheetData>
